--- a/6_Testing_Documentation/Test Case www.sepulsa.com.xlsx
+++ b/6_Testing_Documentation/Test Case www.sepulsa.com.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data C\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Altera_Accademy\6_Testing_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC1092-C01D-47E7-ADF1-0A2DCE6BB731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B0B9EE-EB20-487E-8608-2EABFC892F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>User Story</t>
   </si>
@@ -220,22 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">user dapat tidak dapat melakukan pembayaran </t>
-  </si>
-  <si>
-    <t>User melakukan  memilih metode pembayaran dan memasukan kode promo yang terdaftar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Input nomor
-2. Klik jumlah pulsa 3.Memasukan kode promo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user dapat dapat melakukan pembayaran dan mendapatkan promo </t>
-  </si>
-  <si>
-    <t>User melakukan  memilih metode pembayaran dan memasukan kode promo yang tidak terdaftar</t>
-  </si>
-  <si>
-    <t>Error message kode promo yang dimasukan tidak sesuai</t>
   </si>
 </sst>
 </file>
@@ -470,13 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -486,17 +463,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -516,7 +484,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,15 +493,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:G993"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -775,248 +759,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="63" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -1065,8 +1049,8 @@
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3224,254 +3208,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3493,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13ED78-4511-47E6-8EFA-344E93D9869D}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3510,40 +3494,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3551,221 +3535,185 @@
       <c r="A4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A4:A10"/>
     <mergeCell ref="A1:F2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F4:F12" xr:uid="{B116D3C3-C1B3-4F12-BA74-3567FC192BEE}">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F10" xr:uid="{B116D3C3-C1B3-4F12-BA74-3567FC192BEE}">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
